--- a/database/Tarix.xlsx
+++ b/database/Tarix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,10 +441,15 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Time</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Points</t>
         </is>
@@ -453,15 +458,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Азиз Абдуарвыфа</t>
+          <t>fdsaf dsa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>+998909789065</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>2022-07-29 18:08:10</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
@@ -470,15 +480,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Азиз Абдуарвыфа</t>
+          <t>fdsaf dsa</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>+998909789065</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>2022-07-29 18:11:55</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
@@ -487,15 +502,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Азиз Абдуарвыфа</t>
+          <t>fdsaf dsa</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>+998909789065</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>2022-07-29 18:11:56</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
@@ -504,15 +524,20 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Азиз Абдуарвыфа</t>
+          <t>fdsaf dsa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>+998909789065</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>2022-07-29 18:11:57</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
@@ -521,15 +546,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Азиз Абдуарвыфа</t>
+          <t>fdsaf dsa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>+998909789065</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>2022-07-29 18:11:59</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
@@ -538,15 +568,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Азиз Абдуарвыфа</t>
+          <t>fdsaf dsa</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>+998909789065</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>2022-07-29 18:12:34</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
@@ -555,15 +590,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Азиз Абдуарвыфа</t>
+          <t>fdsaf dsa</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>+998909789065</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>2022-07-29 18:14:01</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
@@ -572,15 +612,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Азиз Абдуарвыфа</t>
+          <t>fdsaf dsa</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>+998909789065</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>2022-07-29 18:29:07</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>-5</t>
         </is>
@@ -589,15 +634,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Азиз Абдуарвыфа</t>
+          <t>fdsaf dsa</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>+998909789065</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>2022-07-29 18:30:12</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>-5</t>
         </is>
@@ -606,15 +656,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Азиз Абдуарвыфа</t>
+          <t>fdsaf dsa</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>+998909789065</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>2022-07-29 18:30:42</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>-3</t>
         </is>
@@ -623,15 +678,20 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Азиз Абдуарвыфа</t>
+          <t>fdsaf dsa</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>+998909789065</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>2022-08-01 14:56:29</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
@@ -640,15 +700,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Азиз Абдуарвыфа</t>
+          <t>fdsaf dsa</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>+998909789065</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>2022-08-01 15:00:26</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
@@ -657,15 +722,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Азиз Абдуарвыфа</t>
+          <t>fdsaf dsa</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>+998909789065</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>2022-08-01 15:00:28</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
@@ -674,15 +744,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Азиз Абдуарвыфа</t>
+          <t>fdsaf dsa</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>+998909789065</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>2022-08-01 15:00:30</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
@@ -691,15 +766,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Азиз Абдуарвыфа</t>
+          <t>fdsaf dsa</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>+998909789065</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>2022-08-01 15:01:04</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
@@ -708,15 +788,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Азиз Абдуарвыфа</t>
+          <t>fdsaf dsa</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>+998909789065</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>2022-08-01 15:02:36</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>-3</t>
         </is>
@@ -725,15 +810,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Азиз Абдуарвыфа</t>
+          <t>fdsaf dsa</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>+998909789065</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>2022-08-01 15:04:24</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
@@ -742,15 +832,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Азиз Абдуарвыфа</t>
+          <t>fdsaf dsa</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>+998909789065</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>2022-08-01 15:06:34</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>-2</t>
         </is>
@@ -759,15 +854,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Vuchv uvhvu</t>
+          <t>Hh hh</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>998998727161</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>2022-08-01 15:17:07</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
@@ -776,15 +876,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Vuchv uvhvu</t>
+          <t>Hh hh</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>998998727161</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>2022-08-01 15:18:08</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
@@ -793,15 +898,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Vuchv uvhvu</t>
+          <t>Hh hh</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>998998727161</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>2022-08-01 15:18:18</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
@@ -810,15 +920,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Vuchv uvhvu</t>
+          <t>Hh hh</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>998998727161</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>2022-08-01 15:18:24</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
@@ -827,15 +942,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Vuchv uvhvu</t>
+          <t>Hh hh</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>998998727161</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>2022-08-01 15:18:26</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
@@ -844,15 +964,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Vuchv uvhvu</t>
+          <t>Hh hh</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>998998727161</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>2022-08-01 15:18:30</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
@@ -861,15 +986,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Vuchv uvhvu</t>
+          <t>Hh hh</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>998998727161</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>2022-08-01 15:22:55</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>-5</t>
         </is>
@@ -878,15 +1008,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Азиз Абдуарвыфа</t>
+          <t>fdsaf dsa</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>+998909789065</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>2022-08-01 15:33:31</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>-5</t>
         </is>
@@ -895,15 +1030,20 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ramazon Isabayev</t>
+          <t>tkoj  opgtrjhpo</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>+998881871871</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>2022-08-01 15:37:38</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
@@ -912,15 +1052,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ramazon Isabayev</t>
+          <t>tkoj  opgtrjhpo</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>+998881871871</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>2022-08-01 15:38:08</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
@@ -929,15 +1074,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ramazon Isabayev</t>
+          <t>tkoj  opgtrjhpo</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>+998881871871</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>2022-08-01 15:38:10</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>+1</t>
         </is>
@@ -946,17 +1096,440 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ramazon Isabayev</t>
+          <t>tkoj  opgtrjhpo</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>+998881871871</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>2022-08-01 15:38:51</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ataxodjayev Lazizxon</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>998993110888</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2022-08-01 15:49:18</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Hh hh</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>998998727161</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2022-08-02 11:13:01</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>tkoj  opgtrjhpo</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>+998881871871</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2022-08-02 11:13:51</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Суллетбаев Бекжан</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>998903533393</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2022-08-02 11:15:53</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Afzal Abdullah</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>998999901119</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2022-08-02 11:18:57</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>tkoj  opgtrjhpo</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>+998881871871</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2022-08-02 11:23:31</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>fdsaf dsa</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>+998909789065</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2022-08-02 11:37:46</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Afzal Abdullah</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>998999901119</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2022-08-02 11:44:15</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Afzal Abdullah</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>998999901119</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2022-08-02 11:44:21</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>fdsaf dsa</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>+998909789065</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2022-08-02 11:44:30</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Narzullayev Azizjon</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>+998977176016</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2022-08-02 11:44:34</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Afzal Abdullah</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>998999901119</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2022-08-02 11:49:27</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Afzal Abdullah</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>998999901119</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2022-08-02 11:51:03</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Afzal Abdullah</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>998999901119</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2022-08-02 12:08:15</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Afzal Abdullah</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>998999901119</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2022-08-02 16:06:41</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Afzal Abdullah</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>998999901119</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2022-08-02 16:41:35</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Afzal Abdullah</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>998999901119</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2022-08-02 16:41:37</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Ataxodjayev Lazizxon</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>998993110888</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2022-08-02 16:42:05</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>+1</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Ataxodjayev Lazizxon</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>998993110888</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2022-08-02 16:44:15</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>-1</t>
         </is>
       </c>
     </row>
